--- a/data/financial_statements/sofp/TTWO.xlsx
+++ b/data/financial_statements/sofp/TTWO.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1896000000</v>
+        <v>1896100000</v>
       </c>
       <c r="C2">
-        <v>1841000000</v>
+        <v>1841400000</v>
       </c>
       <c r="D2">
         <v>2912000000</v>
       </c>
       <c r="E2">
-        <v>2733000000</v>
+        <v>2732764000</v>
       </c>
       <c r="F2">
-        <v>3052000000</v>
+        <v>3051900000</v>
       </c>
       <c r="G2">
         <v>3189133000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>919000000</v>
+        <v>831400000</v>
       </c>
       <c r="C3">
-        <v>875000000</v>
+        <v>773800000</v>
       </c>
       <c r="D3">
-        <v>684000000</v>
+        <v>579400000</v>
       </c>
       <c r="E3">
-        <v>753000000</v>
+        <v>647907000</v>
       </c>
       <c r="F3">
-        <v>912000000</v>
+        <v>804468000</v>
       </c>
       <c r="G3">
         <v>487171000</v>
@@ -864,17 +975,17 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
         <v>13000000</v>
       </c>
       <c r="E4">
-        <v>12000000</v>
+        <v>11678000</v>
       </c>
       <c r="F4">
-        <v>13000000</v>
+        <v>12579000</v>
       </c>
       <c r="G4">
         <v>11491000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>436000000</v>
+        <v>176600000</v>
       </c>
       <c r="C5">
-        <v>320000000</v>
+        <v>165100000</v>
       </c>
       <c r="D5">
-        <v>249000000</v>
+        <v>186300000</v>
       </c>
       <c r="E5">
-        <v>192000000</v>
+        <v>47576000</v>
       </c>
       <c r="F5">
-        <v>254000000</v>
+        <v>54540000</v>
       </c>
       <c r="G5">
         <v>14620000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3251000000</v>
+        <v>3251100000</v>
       </c>
       <c r="C6">
         <v>3036000000</v>
       </c>
       <c r="D6">
-        <v>3859000000</v>
+        <v>3871100000</v>
       </c>
       <c r="E6">
-        <v>3690000000</v>
+        <v>3705013000</v>
       </c>
       <c r="F6">
-        <v>4231000000</v>
+        <v>4243458000</v>
       </c>
       <c r="G6">
         <v>4013612000</v>
@@ -1224,23 +1335,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>632000000</v>
+        <v>333800000</v>
       </c>
       <c r="C7">
-        <v>607000000</v>
+        <v>300200000</v>
       </c>
       <c r="D7">
-        <v>459000000</v>
+        <v>242000000</v>
       </c>
       <c r="E7">
-        <v>448000000</v>
+        <v>235957000</v>
       </c>
       <c r="F7">
-        <v>440000000</v>
+        <v>231230000</v>
       </c>
       <c r="G7">
         <v>224880000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>907800000</v>
@@ -1468,8 +1579,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>135000000</v>
@@ -1509,23 +1620,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>13142000000</v>
+        <v>12234400000</v>
       </c>
       <c r="C10">
-        <v>13510000000</v>
+        <v>12681800000</v>
       </c>
       <c r="D10">
-        <v>1697000000</v>
+        <v>941100000</v>
       </c>
       <c r="E10">
-        <v>1692000000</v>
+        <v>954294000</v>
       </c>
       <c r="F10">
-        <v>1572000000</v>
+        <v>950675000</v>
       </c>
       <c r="G10">
         <v>951298000</v>
@@ -1631,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>115900000</v>
@@ -1687,23 +1798,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>216000000</v>
+        <v>351600000</v>
       </c>
       <c r="C12">
-        <v>350000000</v>
+        <v>485200000</v>
       </c>
       <c r="D12">
-        <v>338000000</v>
+        <v>445200000</v>
       </c>
       <c r="E12">
-        <v>334000000</v>
+        <v>434542000</v>
       </c>
       <c r="F12">
-        <v>188000000</v>
+        <v>288453000</v>
       </c>
       <c r="G12">
         <v>275411000</v>
@@ -1809,8 +1920,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>14241800000</v>
@@ -1931,23 +2042,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>17493000000</v>
+        <v>17492900000</v>
       </c>
       <c r="C14">
-        <v>17745000000</v>
+        <v>17744900000</v>
       </c>
       <c r="D14">
-        <v>6546000000</v>
+        <v>6546300000</v>
       </c>
       <c r="E14">
-        <v>6358000000</v>
+        <v>6357953000</v>
       </c>
       <c r="F14">
-        <v>6619000000</v>
+        <v>6619031000</v>
       </c>
       <c r="G14">
         <v>6314255000</v>
@@ -2053,31 +2164,31 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AM15">
         <v>39354000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>163000000</v>
+        <v>162800000</v>
       </c>
       <c r="C16">
-        <v>200000000</v>
+        <v>199900000</v>
       </c>
       <c r="D16">
-        <v>126000000</v>
+        <v>125900000</v>
       </c>
       <c r="E16">
-        <v>101000000</v>
+        <v>100720000</v>
       </c>
       <c r="F16">
-        <v>83000000</v>
+        <v>83401000</v>
       </c>
       <c r="G16">
         <v>67136000</v>
@@ -2183,8 +2294,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1733900000</v>
@@ -2305,14 +2416,14 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>406000000</v>
+        <v>350000000</v>
       </c>
       <c r="C18">
-        <v>405000000</v>
+        <v>350000000</v>
       </c>
       <c r="D18">
         <v>39000000</v>
@@ -2355,8 +2466,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1164700000</v>
@@ -2477,8 +2588,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2740000000</v>
@@ -2518,23 +2629,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>3467000000</v>
       </c>
       <c r="C21">
-        <v>3287000000</v>
+        <v>3286700000</v>
       </c>
       <c r="D21">
         <v>2105000000</v>
       </c>
       <c r="E21">
-        <v>2072000000</v>
+        <v>2072345000</v>
       </c>
       <c r="F21">
-        <v>2567000000</v>
+        <v>2566873000</v>
       </c>
       <c r="G21">
         <v>2165329000</v>
@@ -2640,14 +2751,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>3265000000</v>
+        <v>2935500000</v>
       </c>
       <c r="C22">
-        <v>3277000000</v>
+        <v>2935500000</v>
       </c>
       <c r="D22">
         <v>211000000</v>
@@ -2753,23 +2864,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>29000000</v>
+        <v>29100000</v>
       </c>
       <c r="C23">
-        <v>22000000</v>
+        <v>21500000</v>
       </c>
       <c r="D23">
-        <v>71000000</v>
+        <v>70900000</v>
       </c>
       <c r="E23">
-        <v>68000000</v>
+        <v>68218000</v>
       </c>
       <c r="F23">
-        <v>52000000</v>
+        <v>51531000</v>
       </c>
       <c r="G23">
         <v>51318000</v>
@@ -2851,17 +2962,17 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>756000000</v>
+        <v>871500000</v>
       </c>
       <c r="C24">
-        <v>987000000</v>
+        <v>1093100000</v>
       </c>
       <c r="D24">
-        <v>-74000000</v>
+        <v>21800000</v>
       </c>
       <c r="E24">
         <v>-78000000</v>
@@ -2898,23 +3009,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>426000000</v>
+        <v>426400000</v>
       </c>
       <c r="C25">
-        <v>405000000</v>
+        <v>404600000</v>
       </c>
       <c r="D25">
-        <v>349000000</v>
+        <v>327600000</v>
       </c>
       <c r="E25">
-        <v>342000000</v>
+        <v>342007000</v>
       </c>
       <c r="F25">
-        <v>324000000</v>
+        <v>323522000</v>
       </c>
       <c r="G25">
         <v>309350000</v>
@@ -3020,8 +3131,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>4592400000</v>
@@ -3142,23 +3253,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>8059000000</v>
+        <v>8059400000</v>
       </c>
       <c r="C27">
-        <v>8083000000</v>
+        <v>8082600000</v>
       </c>
       <c r="D27">
-        <v>2737000000</v>
+        <v>2736600000</v>
       </c>
       <c r="E27">
-        <v>2692000000</v>
+        <v>2692216000</v>
       </c>
       <c r="F27">
-        <v>3149000000</v>
+        <v>3149363000</v>
       </c>
       <c r="G27">
         <v>2682948000</v>
@@ -3264,8 +3375,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>8760500000</v>
@@ -3386,23 +3497,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c r="C29">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c r="D29">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="E29">
-        <v>1000000</v>
+        <v>1391000</v>
       </c>
       <c r="F29">
-        <v>1000000</v>
+        <v>1390000</v>
       </c>
       <c r="G29">
         <v>1389000</v>
@@ -3508,8 +3619,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1928000000</v>
@@ -3521,10 +3632,10 @@
         <v>2289000000</v>
       </c>
       <c r="E30">
-        <v>2178000000</v>
+        <v>2178021000</v>
       </c>
       <c r="F30">
-        <v>2034000000</v>
+        <v>2033524000</v>
       </c>
       <c r="G30">
         <v>2023227000</v>
@@ -3630,8 +3741,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1020600000</v>
@@ -3743,23 +3854,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>9434000000</v>
+        <v>9433501000</v>
       </c>
       <c r="C32">
-        <v>9662000000</v>
+        <v>9662301000</v>
       </c>
       <c r="D32">
-        <v>3810000000</v>
+        <v>3809699000</v>
       </c>
       <c r="E32">
-        <v>3666000000</v>
+        <v>3665737000</v>
       </c>
       <c r="F32">
-        <v>3470000000</v>
+        <v>3469668000</v>
       </c>
       <c r="G32">
         <v>3631307000</v>
@@ -3865,23 +3976,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>9434000000</v>
+        <v>9433500000</v>
       </c>
       <c r="C33">
-        <v>9662000000</v>
+        <v>9662300000</v>
       </c>
       <c r="D33">
-        <v>3810000000</v>
+        <v>3809700000</v>
       </c>
       <c r="E33">
-        <v>3666000000</v>
+        <v>3665737000</v>
       </c>
       <c r="F33">
-        <v>3470000000</v>
+        <v>3469668000</v>
       </c>
       <c r="G33">
         <v>3631307000</v>
@@ -3987,8 +4098,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>17492900000</v>
@@ -4109,8 +4220,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>167500000</v>
@@ -4231,8 +4342,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>-2800900000</v>
@@ -4353,23 +4464,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>1775000000</v>
+        <v>1389400000</v>
       </c>
       <c r="C37">
-        <v>1841000000</v>
+        <v>1444100000</v>
       </c>
       <c r="D37">
         <v>-2662000000</v>
       </c>
       <c r="E37">
-        <v>-2489000000</v>
+        <v>-2488764000</v>
       </c>
       <c r="F37">
-        <v>-2813000000</v>
+        <v>-2812900000</v>
       </c>
       <c r="G37">
         <v>-3001133000</v>
@@ -4475,14 +4586,14 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>3671000000</v>
+        <v>3285500000</v>
       </c>
       <c r="C38">
-        <v>3682000000</v>
+        <v>3285500000</v>
       </c>
       <c r="D38">
         <v>250000000</v>
